--- a/www/vegetable_data.xlsx
+++ b/www/vegetable_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g.lobet/Dropbox/science/projects/opti_maraich/www/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\opti_maraich\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9624750-77EA-9E4E-A3DA-D4892AFAB096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4C6C3C-6FD0-4063-97C2-86121ABA36AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Nicolas Degives</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{BB360568-0085-4B50-97E1-987BCFB10EFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nicolas Degives:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Source : https://www.agrireseau.net/agriculturebiologique/documents/MARAI_Chapitre_3_Rendements.pdf</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>vegetable</t>
   </si>
@@ -95,19 +129,110 @@
   </si>
   <si>
     <t>cal/kg</t>
+  </si>
+  <si>
+    <t>asperge</t>
+  </si>
+  <si>
+    <t>aubergine</t>
+  </si>
+  <si>
+    <t>betterave rouge</t>
+  </si>
+  <si>
+    <t>brocoli</t>
+  </si>
+  <si>
+    <t>carotte</t>
+  </si>
+  <si>
+    <t>cassis</t>
+  </si>
+  <si>
+    <t>celeri rave</t>
+  </si>
+  <si>
+    <t>chou fleur</t>
+  </si>
+  <si>
+    <t>concombre</t>
+  </si>
+  <si>
+    <t>endive</t>
+  </si>
+  <si>
+    <t>epinard</t>
+  </si>
+  <si>
+    <t>fenouil doux</t>
+  </si>
+  <si>
+    <t>fraisier</t>
+  </si>
+  <si>
+    <t>framboise</t>
+  </si>
+  <si>
+    <t>groseiller</t>
+  </si>
+  <si>
+    <t>haricots nains</t>
+  </si>
+  <si>
+    <t>haricots rames</t>
+  </si>
+  <si>
+    <t>kiwi</t>
+  </si>
+  <si>
+    <t>mesclun</t>
+  </si>
+  <si>
+    <t>myrtille</t>
+  </si>
+  <si>
+    <t>panais</t>
+  </si>
+  <si>
+    <t>radis botte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artichaut </t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>semis à récolte</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,8 +274,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -445,16 +574,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F34509-5797-9B41-9E85-118F0A43C27D}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F34509-5797-9B41-9E85-118F0A43C27D}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,143 +605,697 @@
       <c r="F1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>470</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="C4">
+        <v>5.25</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>250</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4.5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>430</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>340</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>410</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0.7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>1.5</v>
+      </c>
+      <c r="C10">
+        <v>0.6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>250</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>1.5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>160</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1.95</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>170</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>1.2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>170</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>0.6</v>
+      </c>
+      <c r="C14">
+        <v>1.25</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>230</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1.25</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>310</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>0.8</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.35</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>150</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>400</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>1.5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>750</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0.76</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>610</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>0.1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B28">
+        <v>2.7</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>160</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0.3</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0.2</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
+      <c r="B30">
+        <v>2.5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>180</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAFA13F-9B9A-EC4B-8482-9F743267353E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +1303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -628,7 +1314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -639,7 +1325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -647,7 +1333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -655,12 +1341,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/www/vegetable_data.xlsx
+++ b/www/vegetable_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\opti_maraich\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4C6C3C-6FD0-4063-97C2-86121ABA36AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F8CA7B-046D-4D7C-A466-B6BE2897EC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -80,9 +81,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>onion</t>
-  </si>
-  <si>
     <t>laitue</t>
   </si>
   <si>
@@ -207,6 +205,9 @@
   </si>
   <si>
     <t>duration</t>
+  </si>
+  <si>
+    <t>oignon</t>
   </si>
 </sst>
 </file>
@@ -272,10 +273,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,7 +575,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,24 +594,24 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C2">
         <v>0.8</v>
@@ -629,18 +626,18 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0.2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -657,7 +654,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>1.5</v>
@@ -680,7 +677,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -703,13 +700,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -726,7 +723,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -749,7 +746,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>0.7</v>
@@ -761,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -772,7 +769,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -784,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -795,7 +792,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>1.5</v>
@@ -818,7 +815,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>1.5</v>
@@ -841,7 +838,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -864,13 +861,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>1.2</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -887,7 +884,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>0.6</v>
@@ -910,7 +907,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -933,7 +930,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -945,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -956,7 +953,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -968,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -979,7 +976,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>0.8</v>
@@ -991,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1002,7 +999,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1014,41 +1011,41 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1060,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1071,7 +1068,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>2.2000000000000002</v>
@@ -1089,12 +1086,12 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>75</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1117,7 +1114,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1129,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1140,7 +1137,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1158,12 +1155,12 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>1.5</v>
@@ -1186,7 +1183,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1209,19 +1206,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
         <v>2.7</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1232,7 +1229,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1255,13 +1252,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>2.5</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1300,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1308,10 +1305,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,45 +1316,45 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/www/vegetable_data.xlsx
+++ b/www/vegetable_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\opti_maraich\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leroy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F8CA7B-046D-4D7C-A466-B6BE2897EC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52857CEB-22BA-4005-8061-F3FCBB0887D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>vegetable</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>oignon</t>
+  </si>
+  <si>
+    <t>Impact carbone</t>
   </si>
 </sst>
 </file>
@@ -572,18 +575,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F34509-5797-9B41-9E85-118F0A43C27D}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,8 +608,11 @@
       <c r="G1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -628,8 +634,11 @@
       <c r="G2">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -651,8 +660,11 @@
       <c r="G3">
         <v>730</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -674,8 +686,11 @@
       <c r="G4">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -697,8 +712,11 @@
       <c r="G5">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -720,8 +738,11 @@
       <c r="G6">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -743,8 +764,11 @@
       <c r="G7">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -766,8 +790,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -789,8 +816,11 @@
       <c r="G9">
         <v>210</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -812,8 +842,11 @@
       <c r="G10">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -835,8 +868,11 @@
       <c r="G11">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -858,8 +894,11 @@
       <c r="G12">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -881,8 +920,11 @@
       <c r="G13">
         <v>180</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -904,8 +946,11 @@
       <c r="G14">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -927,8 +972,11 @@
       <c r="G15">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -950,8 +998,11 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -973,8 +1024,11 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -996,8 +1050,11 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1019,8 +1076,11 @@
       <c r="G19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1042,8 +1102,11 @@
       <c r="G20">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1065,8 +1128,11 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1088,8 +1154,11 @@
       <c r="G22">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1111,8 +1180,11 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1134,8 +1206,11 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1157,8 +1232,11 @@
       <c r="G25">
         <v>175</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1180,8 +1258,11 @@
       <c r="G26">
         <v>180</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1203,8 +1284,11 @@
       <c r="G27">
         <v>180</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1226,8 +1310,11 @@
       <c r="G28">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1249,8 +1336,11 @@
       <c r="G29">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1271,6 +1361,9 @@
       </c>
       <c r="G30">
         <v>120</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1287,12 +1380,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1311,7 +1404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1322,7 +1415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1330,7 +1423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1338,7 +1431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>

--- a/www/vegetable_data.xlsx
+++ b/www/vegetable_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leroy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\opti_maraich\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52857CEB-22BA-4005-8061-F3FCBB0887D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EE9E88-C1FF-4C62-8325-160541870359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
+    <workbookView xWindow="-28920" yWindow="-510" windowWidth="29040" windowHeight="15720" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
   <si>
     <t>vegetable</t>
   </si>
@@ -105,9 +105,6 @@
     <t>water</t>
   </si>
   <si>
-    <t>litre/m2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -211,13 +208,28 @@
   </si>
   <si>
     <t>Impact carbone</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>litre/kg</t>
+  </si>
+  <si>
+    <t>Global average water footprint</t>
+  </si>
+  <si>
+    <t>https://healabel.com/water-footprint-of-foods</t>
+  </si>
+  <si>
+    <t>https://rnm.franceagrimer.fr/prix?M0201:MARCHE#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +250,14 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -256,13 +276,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,15 +601,15 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,41 +629,41 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>0.55000000000000004</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>5.6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
       </c>
       <c r="E2">
         <v>470</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>818</v>
       </c>
       <c r="G2">
         <v>130</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -648,25 +671,25 @@
       <c r="C3">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>46</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2150</v>
       </c>
       <c r="G3">
         <v>730</v>
       </c>
       <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>1.5</v>
@@ -674,25 +697,25 @@
       <c r="C4">
         <v>5.25</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>46</v>
       </c>
       <c r="E4">
         <v>250</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>362</v>
       </c>
       <c r="G4">
         <v>150</v>
       </c>
       <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -700,51 +723,51 @@
       <c r="C5">
         <v>4.5</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>46</v>
       </c>
       <c r="E5">
         <v>430</v>
       </c>
-      <c r="F5">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>46</v>
       </c>
       <c r="G5">
         <v>120</v>
       </c>
       <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
         <v>2.5</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>46</v>
       </c>
       <c r="E6">
         <v>340</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>75</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -752,77 +775,77 @@
       <c r="C7">
         <v>0.9</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>46</v>
       </c>
       <c r="E7">
         <v>410</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="G7">
         <v>120</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
       </c>
       <c r="E8">
         <v>730</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>1.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
       </c>
       <c r="E9">
         <v>290</v>
       </c>
-      <c r="F9">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>46</v>
       </c>
       <c r="G9">
         <v>210</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>1.5</v>
@@ -830,49 +853,49 @@
       <c r="C10">
         <v>0.6</v>
       </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" t="s">
+        <v>46</v>
       </c>
       <c r="E10">
         <v>250</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="G10">
         <v>150</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>1.5</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>1.52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
       </c>
       <c r="E11">
         <v>160</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>353</v>
       </c>
       <c r="G11">
         <v>90</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -882,25 +905,25 @@
       <c r="C12">
         <v>1.95</v>
       </c>
-      <c r="D12">
-        <v>1</v>
+      <c r="D12" t="s">
+        <v>46</v>
       </c>
       <c r="E12">
         <v>170</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>336</v>
       </c>
       <c r="G12">
         <v>70</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>1.2</v>
@@ -908,25 +931,25 @@
       <c r="C13">
         <v>5.5</v>
       </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="D13" t="s">
+        <v>46</v>
       </c>
       <c r="E13">
         <v>170</v>
       </c>
-      <c r="F13">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>46</v>
       </c>
       <c r="G13">
         <v>180</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>0.6</v>
@@ -934,155 +957,155 @@
       <c r="C14">
         <v>1.25</v>
       </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="D14" t="s">
+        <v>46</v>
       </c>
       <c r="E14">
         <v>230</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="G14">
         <v>60</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1.25</v>
       </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="D15" t="s">
+        <v>46</v>
       </c>
       <c r="E15">
         <v>310</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>8280</v>
       </c>
       <c r="G15">
         <v>90</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
+        <v>28.64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
       </c>
       <c r="E16">
         <v>330</v>
       </c>
       <c r="F16">
+        <v>347</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
         <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
       </c>
       <c r="C17">
         <v>25</v>
       </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="D17" t="s">
+        <v>46</v>
       </c>
       <c r="E17">
         <v>450</v>
       </c>
       <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
+        <v>413</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>0.8</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
       </c>
       <c r="E18">
         <v>310</v>
       </c>
       <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
+        <v>499</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+        <v>7.52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
       </c>
       <c r="E19">
         <v>500</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>561</v>
       </c>
       <c r="G19">
         <v>100</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -1090,49 +1113,49 @@
       <c r="C20">
         <v>8</v>
       </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="D20" t="s">
+        <v>46</v>
       </c>
       <c r="E20">
         <v>390</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>547</v>
       </c>
       <c r="G20">
         <v>70</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
+        <v>4.49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
       </c>
       <c r="E21">
         <v>520</v>
       </c>
       <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
+        <v>514</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1142,127 +1165,127 @@
       <c r="C22">
         <v>0.35</v>
       </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="D22" t="s">
+        <v>46</v>
       </c>
       <c r="E22">
         <v>150</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G22">
         <v>300</v>
       </c>
       <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+        <v>13.51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
       </c>
       <c r="E24">
         <v>150</v>
       </c>
       <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
+        <v>845</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+        <v>1.78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
       </c>
       <c r="E25">
         <v>400</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>272</v>
       </c>
       <c r="G25">
         <v>175</v>
       </c>
       <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>1.5</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
       </c>
       <c r="E26">
         <v>750</v>
       </c>
-      <c r="F26">
-        <v>1</v>
+      <c r="F26" t="s">
+        <v>46</v>
       </c>
       <c r="G26">
         <v>180</v>
       </c>
       <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1272,23 +1295,23 @@
       <c r="C27">
         <v>0.76</v>
       </c>
-      <c r="D27">
-        <v>1</v>
+      <c r="D27" t="s">
+        <v>46</v>
       </c>
       <c r="E27">
         <v>610</v>
       </c>
-      <c r="F27">
-        <v>1</v>
+      <c r="F27" t="s">
+        <v>46</v>
       </c>
       <c r="G27">
         <v>180</v>
       </c>
       <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1298,49 +1321,49 @@
       <c r="C28">
         <v>2.5</v>
       </c>
-      <c r="D28">
-        <v>1</v>
+      <c r="D28" t="s">
+        <v>46</v>
       </c>
       <c r="E28">
         <v>890</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>287</v>
       </c>
       <c r="G28">
         <v>110</v>
       </c>
       <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+        <v>5.32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
       </c>
       <c r="E29">
         <v>160</v>
       </c>
-      <c r="F29">
-        <v>1</v>
+      <c r="F29" t="s">
+        <v>46</v>
       </c>
       <c r="G29">
         <v>40</v>
       </c>
       <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1350,20 +1373,20 @@
       <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30">
-        <v>1</v>
+      <c r="D30" t="s">
+        <v>46</v>
       </c>
       <c r="E30">
         <v>180</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="G30">
         <v>120</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -1374,83 +1397,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAFA13F-9B9A-EC4B-8482-9F743267353E}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{3C8BE01C-A5C6-4557-B828-A7C6E6A3BEEC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/www/vegetable_data.xlsx
+++ b/www/vegetable_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\opti_maraich\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EE9E88-C1FF-4C62-8325-160541870359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0932C35-074F-4B15-9569-08B1E2118B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-510" windowWidth="29040" windowHeight="15720" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>vegetable</t>
   </si>
@@ -180,9 +180,6 @@
     <t>kiwi</t>
   </si>
   <si>
-    <t>mesclun</t>
-  </si>
-  <si>
     <t>myrtille</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>https://rnm.franceagrimer.fr/prix?M0201:MARCHE#</t>
+  </si>
+  <si>
+    <t>kgCO2e/kg</t>
   </si>
 </sst>
 </file>
@@ -598,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F34509-5797-9B41-9E85-118F0A43C27D}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -629,15 +629,15 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0.55000000000000004</v>
@@ -646,7 +646,7 @@
         <v>5.6</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>470</v>
@@ -657,8 +657,8 @@
       <c r="G2">
         <v>130</v>
       </c>
-      <c r="H2" t="s">
-        <v>46</v>
+      <c r="H2">
+        <v>0.53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>200</v>
@@ -698,7 +698,7 @@
         <v>5.25</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>250</v>
@@ -724,13 +724,13 @@
         <v>4.5</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>430</v>
       </c>
-      <c r="F5" t="s">
-        <v>46</v>
+      <c r="F5">
+        <v>132</v>
       </c>
       <c r="G5">
         <v>120</v>
@@ -750,7 +750,7 @@
         <v>2.5</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>340</v>
@@ -776,7 +776,7 @@
         <v>0.9</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>410</v>
@@ -798,20 +798,20 @@
       <c r="B8">
         <v>0.7</v>
       </c>
-      <c r="C8" t="s">
-        <v>46</v>
+      <c r="C8">
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>730</v>
       </c>
-      <c r="F8" t="s">
-        <v>46</v>
+      <c r="F8">
+        <v>499</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <v>1.76</v>
@@ -828,13 +828,13 @@
         <v>1.87</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>290</v>
       </c>
-      <c r="F9" t="s">
-        <v>46</v>
+      <c r="F9">
+        <v>322</v>
       </c>
       <c r="G9">
         <v>210</v>
@@ -854,7 +854,7 @@
         <v>0.6</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>250</v>
@@ -880,7 +880,7 @@
         <v>1.52</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>160</v>
@@ -906,7 +906,7 @@
         <v>1.95</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>170</v>
@@ -932,13 +932,13 @@
         <v>5.5</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>170</v>
       </c>
-      <c r="F13" t="s">
-        <v>46</v>
+      <c r="F13">
+        <v>322</v>
       </c>
       <c r="G13">
         <v>180</v>
@@ -958,7 +958,7 @@
         <v>1.25</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>230</v>
@@ -984,7 +984,7 @@
         <v>1.25</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>310</v>
@@ -1010,7 +1010,7 @@
         <v>28.64</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>330</v>
@@ -1019,7 +1019,7 @@
         <v>347</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16">
         <v>0.53</v>
@@ -1036,7 +1036,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>450</v>
@@ -1045,7 +1045,7 @@
         <v>413</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17">
         <v>0.91</v>
@@ -1058,11 +1058,11 @@
       <c r="B18">
         <v>0.8</v>
       </c>
-      <c r="C18" t="s">
-        <v>46</v>
+      <c r="C18">
+        <v>31.2</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>310</v>
@@ -1071,7 +1071,7 @@
         <v>499</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18">
         <v>1.76</v>
@@ -1088,7 +1088,7 @@
         <v>7.52</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -1099,8 +1099,8 @@
       <c r="G19">
         <v>100</v>
       </c>
-      <c r="H19" t="s">
-        <v>46</v>
+      <c r="H19">
+        <v>0.82</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>390</v>
@@ -1125,8 +1125,8 @@
       <c r="G20">
         <v>70</v>
       </c>
-      <c r="H20" t="s">
-        <v>46</v>
+      <c r="H20">
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1140,7 +1140,7 @@
         <v>4.49</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>520</v>
@@ -1149,7 +1149,7 @@
         <v>514</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21">
         <v>0.92</v>
@@ -1166,7 +1166,7 @@
         <v>0.35</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>150</v>
@@ -1186,206 +1186,180 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
+        <v>0.9</v>
+      </c>
+      <c r="C23">
+        <v>13.51</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
+        <v>150</v>
+      </c>
+      <c r="F23">
+        <v>845</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23">
-        <v>1.1100000000000001</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B24">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>13.51</v>
+        <v>1.78</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="F24">
-        <v>845</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
+        <v>272</v>
+      </c>
+      <c r="G24">
+        <v>175</v>
       </c>
       <c r="H24">
-        <v>1.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C25">
-        <v>1.78</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="F25">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="G25">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H25">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>2.2200000000000002</v>
+        <v>0.76</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>750</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
+        <v>610</v>
+      </c>
+      <c r="F26">
+        <v>322</v>
       </c>
       <c r="G26">
         <v>180</v>
       </c>
       <c r="H26">
-        <v>0.39</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="C27">
-        <v>0.76</v>
+        <v>2.5</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27">
-        <v>610</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
+        <v>890</v>
+      </c>
+      <c r="F27">
+        <v>287</v>
       </c>
       <c r="G27">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="H27">
-        <v>0.71</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="C28">
-        <v>2.5</v>
+        <v>5.32</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28">
-        <v>890</v>
+        <v>160</v>
       </c>
       <c r="F28">
-        <v>287</v>
+        <v>387</v>
       </c>
       <c r="G28">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C29">
-        <v>5.32</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29">
-        <v>160</v>
-      </c>
-      <c r="F29" t="s">
-        <v>46</v>
+        <v>180</v>
+      </c>
+      <c r="F29">
+        <v>214</v>
       </c>
       <c r="G29">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H29">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>2.5</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30">
-        <v>180</v>
-      </c>
-      <c r="F30">
-        <v>214</v>
-      </c>
-      <c r="G30">
-        <v>120</v>
-      </c>
-      <c r="H30">
         <v>0.62</v>
       </c>
     </row>
@@ -1397,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAFA13F-9B9A-EC4B-8482-9F743267353E}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1412,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,24 +1436,32 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
-        <v>42</v>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/www/vegetable_data.xlsx
+++ b/www/vegetable_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\opti_maraich\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0932C35-074F-4B15-9569-08B1E2118B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933432F6-3BAF-4165-89B2-88659BCF1957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-510" windowWidth="29040" windowHeight="15720" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>vegetable</t>
   </si>
@@ -601,12 +601,13 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -810,8 +811,8 @@
       <c r="F8">
         <v>499</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
+      <c r="G8">
+        <v>365</v>
       </c>
       <c r="H8">
         <v>1.76</v>
@@ -1018,8 +1019,8 @@
       <c r="F16">
         <v>347</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
+      <c r="G16">
+        <v>365</v>
       </c>
       <c r="H16">
         <v>0.53</v>
@@ -1044,8 +1045,8 @@
       <c r="F17">
         <v>413</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
+      <c r="G17">
+        <v>365</v>
       </c>
       <c r="H17">
         <v>0.91</v>
@@ -1070,8 +1071,8 @@
       <c r="F18">
         <v>499</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
+      <c r="G18">
+        <v>365</v>
       </c>
       <c r="H18">
         <v>1.76</v>
@@ -1148,8 +1149,8 @@
       <c r="F21">
         <v>514</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
+      <c r="G21">
+        <v>365</v>
       </c>
       <c r="H21">
         <v>0.92</v>
@@ -1200,8 +1201,8 @@
       <c r="F23">
         <v>845</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
+      <c r="G23">
+        <v>365</v>
       </c>
       <c r="H23">
         <v>1.38</v>

--- a/www/vegetable_data.xlsx
+++ b/www/vegetable_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\opti_maraich\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leroy\Documents\COURS M1\Q2\LBIRA2130\Github de base optimaraichage\opti_maraich-main GOOD\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933432F6-3BAF-4165-89B2-88659BCF1957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC8BAE1-84A0-4FD5-8072-1686EEA7BF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>vegetable</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>Impact carbone</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>litre/kg</t>
@@ -600,17 +597,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F34509-5797-9B41-9E85-118F0A43C27D}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +633,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -646,8 +643,8 @@
       <c r="C2">
         <v>5.6</v>
       </c>
-      <c r="D2" t="s">
-        <v>45</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
         <v>470</v>
@@ -662,7 +659,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -672,8 +669,8 @@
       <c r="C3">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>45</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
         <v>200</v>
@@ -688,7 +685,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -698,8 +695,8 @@
       <c r="C4">
         <v>5.25</v>
       </c>
-      <c r="D4" t="s">
-        <v>45</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>250</v>
@@ -714,7 +711,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -724,8 +721,8 @@
       <c r="C5">
         <v>4.5</v>
       </c>
-      <c r="D5" t="s">
-        <v>45</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
         <v>430</v>
@@ -740,7 +737,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -750,8 +747,8 @@
       <c r="C6">
         <v>2.5</v>
       </c>
-      <c r="D6" t="s">
-        <v>45</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6">
         <v>340</v>
@@ -766,7 +763,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -776,8 +773,8 @@
       <c r="C7">
         <v>0.9</v>
       </c>
-      <c r="D7" t="s">
-        <v>45</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7">
         <v>410</v>
@@ -792,7 +789,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -802,8 +799,8 @@
       <c r="C8">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>45</v>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8">
         <v>730</v>
@@ -818,7 +815,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -828,8 +825,8 @@
       <c r="C9">
         <v>1.87</v>
       </c>
-      <c r="D9" t="s">
-        <v>45</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9">
         <v>290</v>
@@ -844,7 +841,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -854,8 +851,8 @@
       <c r="C10">
         <v>0.6</v>
       </c>
-      <c r="D10" t="s">
-        <v>45</v>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10">
         <v>250</v>
@@ -870,7 +867,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -880,8 +877,8 @@
       <c r="C11">
         <v>1.52</v>
       </c>
-      <c r="D11" t="s">
-        <v>45</v>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11">
         <v>160</v>
@@ -896,7 +893,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -906,8 +903,8 @@
       <c r="C12">
         <v>1.95</v>
       </c>
-      <c r="D12" t="s">
-        <v>45</v>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12">
         <v>170</v>
@@ -922,7 +919,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -932,8 +929,8 @@
       <c r="C13">
         <v>5.5</v>
       </c>
-      <c r="D13" t="s">
-        <v>45</v>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13">
         <v>170</v>
@@ -948,7 +945,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -958,8 +955,8 @@
       <c r="C14">
         <v>1.25</v>
       </c>
-      <c r="D14" t="s">
-        <v>45</v>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14">
         <v>230</v>
@@ -974,7 +971,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -984,8 +981,8 @@
       <c r="C15">
         <v>1.25</v>
       </c>
-      <c r="D15" t="s">
-        <v>45</v>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15">
         <v>310</v>
@@ -1000,7 +997,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1010,8 +1007,8 @@
       <c r="C16">
         <v>28.64</v>
       </c>
-      <c r="D16" t="s">
-        <v>45</v>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16">
         <v>330</v>
@@ -1026,7 +1023,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1036,8 +1033,8 @@
       <c r="C17">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
-        <v>45</v>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17">
         <v>450</v>
@@ -1052,7 +1049,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1062,8 +1059,8 @@
       <c r="C18">
         <v>31.2</v>
       </c>
-      <c r="D18" t="s">
-        <v>45</v>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="E18">
         <v>310</v>
@@ -1078,7 +1075,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1088,8 +1085,8 @@
       <c r="C19">
         <v>7.52</v>
       </c>
-      <c r="D19" t="s">
-        <v>45</v>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -1104,7 +1101,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1114,8 +1111,8 @@
       <c r="C20">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>45</v>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20">
         <v>390</v>
@@ -1130,7 +1127,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1140,8 +1137,8 @@
       <c r="C21">
         <v>4.49</v>
       </c>
-      <c r="D21" t="s">
-        <v>45</v>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21">
         <v>520</v>
@@ -1156,7 +1153,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1166,8 +1163,8 @@
       <c r="C22">
         <v>0.35</v>
       </c>
-      <c r="D22" t="s">
-        <v>45</v>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22">
         <v>150</v>
@@ -1182,7 +1179,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1192,8 +1189,8 @@
       <c r="C23">
         <v>13.51</v>
       </c>
-      <c r="D23" t="s">
-        <v>45</v>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23">
         <v>150</v>
@@ -1208,7 +1205,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1218,8 +1215,8 @@
       <c r="C24">
         <v>1.78</v>
       </c>
-      <c r="D24" t="s">
-        <v>45</v>
+      <c r="D24">
+        <v>0</v>
       </c>
       <c r="E24">
         <v>400</v>
@@ -1234,7 +1231,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1244,8 +1241,8 @@
       <c r="C25">
         <v>2.2200000000000002</v>
       </c>
-      <c r="D25" t="s">
-        <v>45</v>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25">
         <v>750</v>
@@ -1260,7 +1257,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1270,8 +1267,8 @@
       <c r="C26">
         <v>0.76</v>
       </c>
-      <c r="D26" t="s">
-        <v>45</v>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26">
         <v>610</v>
@@ -1286,7 +1283,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1296,8 +1293,8 @@
       <c r="C27">
         <v>2.5</v>
       </c>
-      <c r="D27" t="s">
-        <v>45</v>
+      <c r="D27">
+        <v>0</v>
       </c>
       <c r="E27">
         <v>890</v>
@@ -1312,7 +1309,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1322,8 +1319,8 @@
       <c r="C28">
         <v>5.32</v>
       </c>
-      <c r="D28" t="s">
-        <v>45</v>
+      <c r="D28">
+        <v>0</v>
       </c>
       <c r="E28">
         <v>160</v>
@@ -1338,7 +1335,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1348,8 +1345,8 @@
       <c r="C29">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
-        <v>45</v>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29">
         <v>180</v>
@@ -1378,12 +1375,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1402,7 +1399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1413,10 +1410,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1424,7 +1421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1432,21 +1429,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1457,12 +1454,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/www/vegetable_data.xlsx
+++ b/www/vegetable_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leroy\Documents\COURS M1\Q2\LBIRA2130\Github de base optimaraichage\opti_maraich-main GOOD\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\opti_maraich\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC8BAE1-84A0-4FD5-8072-1686EEA7BF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AE67A8-D410-43DC-A5B0-2D5EA6E94927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{F7A0E466-1D06-D645-93E5-5F31290FFAD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,17 +597,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F34509-5797-9B41-9E85-118F0A43C27D}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.19921875" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -659,7 +659,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -685,7 +685,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -711,7 +711,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -737,7 +737,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -763,7 +763,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -789,7 +789,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -815,7 +815,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -841,7 +841,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -867,7 +867,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -893,7 +893,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -919,7 +919,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -945,7 +945,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -971,7 +971,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -988,7 +988,7 @@
         <v>310</v>
       </c>
       <c r="F15">
-        <v>8280</v>
+        <v>230</v>
       </c>
       <c r="G15">
         <v>90</v>
@@ -997,7 +997,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1372,15 +1372,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.3984375" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
